--- a/Resources/DataFile/SkillInfo.xlsx
+++ b/Resources/DataFile/SkillInfo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\DirectX\DirectX\Resources\DataFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\DirectX\DirectX_AR38_SJH\DirectX\Resources\DataFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1099,8 +1099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AK34" sqref="AK34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3388,7 +3388,7 @@
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B23" s="1">
         <v>0</v>
